--- a/src/analysis_examples/circadb/results_jtk/cosinor_10369295_anapc16_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10369295_anapc16_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25006827813617755, 0.3982024393667431]</t>
+          <t>[0.25069401277280157, 0.3975767047301191]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.820593893650198e-09</v>
+        <v>8.504376314277806e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>9.820593893650198e-09</v>
+        <v>8.504376314277806e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.4025263860455386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.37025925947825994, 0.4505380910867633]</t>
+          <t>[0.3703197476750693, 0.4504776028899539]</t>
         </is>
       </c>
       <c r="U2" t="n">
